--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_384__Reeval_Sobol_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_384__Reeval_Sobol_Modell_1.2.xlsx
@@ -6124,58 +6124,58 @@
                   <c:v>95.65432739257812</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.35478210449219</c:v>
+                  <c:v>26.35478782653809</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.7959680557251</c:v>
+                  <c:v>11.79597091674805</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>95.42216491699219</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.9141845703125</c:v>
+                  <c:v>70.91413879394531</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.7681884765625</c:v>
+                  <c:v>98.76820373535156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.002128601074219</c:v>
+                  <c:v>4.002131462097168</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.101228713989258</c:v>
+                  <c:v>4.101225852966309</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>52.38759613037109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.795068025588989</c:v>
+                  <c:v>3.795062065124512</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>93.52115631103516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.332441806793213</c:v>
+                  <c:v>4.332444667816162</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>95.57077026367188</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.656149625778198</c:v>
+                  <c:v>3.656152486801147</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4.183760643005371</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.015853881835938</c:v>
+                  <c:v>4.015856742858887</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>96.71475219726562</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>71.57576751708984</c:v>
+                  <c:v>71.57579040527344</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.158987998962402</c:v>
+                  <c:v>4.158990859985352</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>95.44207000732422</c:v>
@@ -6190,22 +6190,22 @@
                   <c:v>95.49031829833984</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.348472118377686</c:v>
+                  <c:v>4.348474979400635</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95.33353424072266</c:v>
+                  <c:v>95.33352661132812</c:v>
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>83.38783264160156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>88.40821838378906</c:v>
+                  <c:v>88.40821075439453</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.316940784454346</c:v>
+                  <c:v>4.316943645477295</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.69755935668945</c:v>
+                  <c:v>33.69757080078125</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>52.57888031005859</c:v>
@@ -6214,13 +6214,13 @@
                   <c:v>4.132827281951904</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.027359962463379</c:v>
+                  <c:v>4.027362823486328</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.348319053649902</c:v>
+                  <c:v>4.348313331604004</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>4.337265968322754</c:v>
+                  <c:v>4.337271690368652</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>98.01615905761719</c:v>
@@ -6229,10 +6229,10 @@
                   <c:v>20.87861251831055</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3.999341726303101</c:v>
+                  <c:v>3.999347448348999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4.348151683807373</c:v>
+                  <c:v>4.348148822784424</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>98.74702453613281</c:v>
@@ -6241,13 +6241,13 @@
                   <c:v>91.07878875732422</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>92.37674713134766</c:v>
+                  <c:v>92.37673950195312</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.347842693328857</c:v>
+                  <c:v>4.347848892211914</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>11.11709117889404</c:v>
+                  <c:v>11.11710357666016</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>5.952241897583008</c:v>
@@ -6256,58 +6256,58 @@
                   <c:v>4.42780876159668</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4.348401546478271</c:v>
+                  <c:v>4.348404407501221</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>97.10677337646484</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>3.492958068847656</c:v>
+                  <c:v>3.492955207824707</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>96.24632263183594</c:v>
+                  <c:v>96.24633026123047</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>6.912858963012695</c:v>
+                  <c:v>6.912864685058594</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>16.96579742431641</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>97.35234069824219</c:v>
+                  <c:v>97.35233306884766</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>38.82600784301758</c:v>
+                  <c:v>38.82602310180664</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>52.78878784179688</c:v>
+                  <c:v>52.78878021240234</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>33.64883804321289</c:v>
+                  <c:v>33.64882278442383</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>89.29872894287109</c:v>
+                  <c:v>89.29872131347656</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>4.012946605682373</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>11.14012718200684</c:v>
+                  <c:v>11.14013290405273</c:v>
                 </c:pt>
                 <c:pt idx="59">
                   <c:v>88.27588653564453</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>3.69845175743103</c:v>
+                  <c:v>3.698457717895508</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.005391597747803</c:v>
+                  <c:v>4.005385875701904</c:v>
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>98.66838073730469</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.028782844543457</c:v>
+                  <c:v>4.028785705566406</c:v>
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>95.49602508544922</c:v>
@@ -6322,22 +6322,22 @@
                   <c:v>3.969515562057495</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>55.81831741333008</c:v>
+                  <c:v>55.81830596923828</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>91.72093200683594</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>98.12565612792969</c:v>
+                  <c:v>98.12564849853516</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>96.50541687011719</c:v>
+                  <c:v>96.50540924072266</c:v>
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>97.70490264892578</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>14.10138511657715</c:v>
+                  <c:v>14.1013879776001</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>95.46365356445312</c:v>
@@ -6352,19 +6352,19 @@
                   <c:v>95.49832916259766</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>94.65719604492188</c:v>
+                  <c:v>94.65718841552734</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>98.77340698242188</c:v>
+                  <c:v>98.77342224121094</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>50.32259368896484</c:v>
+                  <c:v>50.32259750366211</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>4.34630823135376</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>3.622195959091187</c:v>
+                  <c:v>3.622199058532715</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>95.12043762207031</c:v>
@@ -6376,10 +6376,10 @@
                   <c:v>95.48874664306641</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>4.348457336425781</c:v>
+                  <c:v>4.348454475402832</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.669155120849609</c:v>
+                  <c:v>5.669160842895508</c:v>
                 </c:pt>
                 <c:pt idx="88">
                   <c:v>4.33749532699585</c:v>
@@ -6391,7 +6391,7 @@
                   <c:v>95.39859008789062</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>4.345267772674561</c:v>
+                  <c:v>4.345262050628662</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>6.508344650268555</c:v>
@@ -6403,7 +6403,7 @@
                   <c:v>4.081670761108398</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.071158409118652</c:v>
+                  <c:v>4.071152687072754</c:v>
                 </c:pt>
                 <c:pt idx="96">
                   <c:v>93.34869384765625</c:v>
@@ -6412,19 +6412,19 @@
                   <c:v>98.27552795410156</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>3.980830430984497</c:v>
+                  <c:v>3.980833292007446</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>95.50054168701172</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.348436832427979</c:v>
+                  <c:v>4.348439693450928</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.093132972717285</c:v>
+                  <c:v>5.093135833740234</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>84.79969787597656</c:v>
+                  <c:v>84.79970550537109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7183,7 +7183,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>26.35478210449219</v>
+        <v>26.35478782653809</v>
       </c>
       <c r="G4">
         <v>103</v>
@@ -7215,7 +7215,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>11.7959680557251</v>
+        <v>11.79597091674805</v>
       </c>
       <c r="G5">
         <v>103</v>
@@ -7279,7 +7279,7 @@
         <v>84.02330000000001</v>
       </c>
       <c r="F7">
-        <v>70.9141845703125</v>
+        <v>70.91413879394531</v>
       </c>
       <c r="G7">
         <v>103</v>
@@ -7311,7 +7311,7 @@
         <v>98.1893</v>
       </c>
       <c r="F8">
-        <v>98.7681884765625</v>
+        <v>98.76820373535156</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4.002128601074219</v>
+        <v>4.002131462097168</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7351,7 +7351,7 @@
         <v>34.1367</v>
       </c>
       <c r="F10">
-        <v>4.101228713989258</v>
+        <v>4.101225852966309</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7391,7 +7391,7 @@
         <v>70.80159999999999</v>
       </c>
       <c r="F12">
-        <v>3.795068025588989</v>
+        <v>3.795062065124512</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>4.332441806793213</v>
+        <v>4.332444667816162</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7471,7 +7471,7 @@
         <v>43.5746</v>
       </c>
       <c r="F16">
-        <v>3.656149625778198</v>
+        <v>3.656152486801147</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>4.015853881835938</v>
+        <v>4.015856742858887</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>34.9115</v>
       </c>
       <c r="F20">
-        <v>71.57576751708984</v>
+        <v>71.57579040527344</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>4.158987998962402</v>
+        <v>4.158990859985352</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>4.348472118377686</v>
+        <v>4.348474979400635</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>88.40260000000001</v>
       </c>
       <c r="F27">
-        <v>95.33353424072266</v>
+        <v>95.33352661132812</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>69.5461</v>
       </c>
       <c r="F29">
-        <v>88.40821838378906</v>
+        <v>88.40821075439453</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4.316940784454346</v>
+        <v>4.316943645477295</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>33.69755935668945</v>
+        <v>33.69757080078125</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>4.027359962463379</v>
+        <v>4.027362823486328</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7851,7 +7851,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>4.348319053649902</v>
+        <v>4.348313331604004</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4.337265968322754</v>
+        <v>4.337271690368652</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7931,7 +7931,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>3.999341726303101</v>
+        <v>3.999347448348999</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>4.348151683807373</v>
+        <v>4.348148822784424</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -8011,7 +8011,7 @@
         <v>87.6232</v>
       </c>
       <c r="F43">
-        <v>92.37674713134766</v>
+        <v>92.37673950195312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>4.347842693328857</v>
+        <v>4.347848892211914</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>11.11709117889404</v>
+        <v>11.11710357666016</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>4.348401546478271</v>
+        <v>4.348404407501221</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>3.492958068847656</v>
+        <v>3.492955207824707</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>94.2983</v>
       </c>
       <c r="F51">
-        <v>96.24632263183594</v>
+        <v>96.24633026123047</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>47.7787</v>
       </c>
       <c r="F52">
-        <v>6.912858963012695</v>
+        <v>6.912864685058594</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>97.72280000000001</v>
       </c>
       <c r="F54">
-        <v>97.35234069824219</v>
+        <v>97.35233306884766</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>38.82600784301758</v>
+        <v>38.82602310180664</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>42.5481</v>
       </c>
       <c r="F56">
-        <v>52.78878784179688</v>
+        <v>52.78878021240234</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>39.8962</v>
       </c>
       <c r="F57">
-        <v>33.64883804321289</v>
+        <v>33.64882278442383</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>89.467</v>
       </c>
       <c r="F58">
-        <v>89.29872894287109</v>
+        <v>89.29872131347656</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>34.2752</v>
       </c>
       <c r="F60">
-        <v>11.14012718200684</v>
+        <v>11.14013290405273</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>3.69845175743103</v>
+        <v>3.698457717895508</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>4.005391597747803</v>
+        <v>4.005385875701904</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -8451,7 +8451,7 @@
         <v>31.0072</v>
       </c>
       <c r="F65">
-        <v>4.028782844543457</v>
+        <v>4.028785705566406</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>57.4947</v>
       </c>
       <c r="F70">
-        <v>55.81831741333008</v>
+        <v>55.81830596923828</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8591,7 +8591,7 @@
         <v>98.4423</v>
       </c>
       <c r="F72">
-        <v>98.12565612792969</v>
+        <v>98.12564849853516</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -8611,7 +8611,7 @@
         <v>89.2906</v>
       </c>
       <c r="F73">
-        <v>96.50541687011719</v>
+        <v>96.50540924072266</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>14.10138511657715</v>
+        <v>14.1013879776001</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>90.54819999999999</v>
       </c>
       <c r="F80">
-        <v>94.65719604492188</v>
+        <v>94.65718841552734</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>98.0264</v>
       </c>
       <c r="F81">
-        <v>98.77340698242188</v>
+        <v>98.77342224121094</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8791,7 +8791,7 @@
         <v>59.3491</v>
       </c>
       <c r="F82">
-        <v>50.32259368896484</v>
+        <v>50.32259750366211</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>3.622195959091187</v>
+        <v>3.622199058532715</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8911,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>4.348457336425781</v>
+        <v>4.348454475402832</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8931,7 +8931,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>5.669155120849609</v>
+        <v>5.669160842895508</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>4.345267772674561</v>
+        <v>4.345262050628662</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -9091,7 +9091,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>4.071158409118652</v>
+        <v>4.071152687072754</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -9151,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>3.980830430984497</v>
+        <v>3.980833292007446</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>4.348436832427979</v>
+        <v>4.348439693450928</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>5.093132972717285</v>
+        <v>5.093135833740234</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -9231,7 +9231,7 @@
         <v>76.82470000000001</v>
       </c>
       <c r="F104">
-        <v>84.79969787597656</v>
+        <v>84.79970550537109</v>
       </c>
     </row>
     <row r="105" spans="1:6">
